--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -103,58 +103,58 @@
     <t>risk</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -763,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
         <v>48</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0.9316239316239316</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>0.896551724137931</v>
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0.889763779527559</v>
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>0.8807339449541285</v>
@@ -1045,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7">
         <v>0.8723404255319149</v>
@@ -1095,7 +1095,7 @@
         <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -1145,7 +1145,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
         <v>0.8141025641025641</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>0.8080808080808081</v>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>0.7824933687002652</v>
@@ -1295,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>0.7640449438202247</v>
@@ -1345,28 +1345,28 @@
         <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7631578947368421</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L13">
         <v>174</v>
       </c>
       <c r="M13">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1395,7 +1395,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>0.7102473498233216</v>
@@ -1445,28 +1445,28 @@
         <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.6809815950920245</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L15">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,25 +1498,25 @@
         <v>45</v>
       </c>
       <c r="K16">
-        <v>0.6739130434782609</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1548,25 +1548,25 @@
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.6716417910447762</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1874,25 +1874,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1186440677966102</v>
+        <v>0.01420118343195266</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>236</v>
+        <v>477</v>
       </c>
       <c r="E24">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F24">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>104</v>
+        <v>1666</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>53</v>
@@ -1924,25 +1924,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01420118343195266</v>
+        <v>0.01401273885350319</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>477</v>
+        <v>785</v>
       </c>
       <c r="E25">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F25">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1666</v>
+        <v>2322</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
@@ -1970,30 +1970,6 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.01401273885350319</v>
-      </c>
-      <c r="C26">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>785</v>
-      </c>
-      <c r="E26">
-        <v>0.96</v>
-      </c>
-      <c r="F26">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2322</v>
-      </c>
       <c r="J26" s="1" t="s">
         <v>55</v>
       </c>
@@ -2957,7 +2933,7 @@
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K63">
         <v>0.2446324007807417</v>
@@ -3165,7 +3141,7 @@
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K71">
         <v>0.2137800849457291</v>
